--- a/ref/country.xlsx
+++ b/ref/country.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stuhqueducn-my.sharepoint.com/personal/1995131017_stu_hqu_edu_cn/Documents/原神/Teyvat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stuhqueducn-my.sharepoint.com/personal/1995131017_stu_hqu_edu_cn/Documents/原神/Teyvat/ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="8_{BD887C1E-F5B2-49C5-B9DA-EF029EAEDA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97115313-A384-45EF-AC9B-9BB8EF361E73}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="8_{BD887C1E-F5B2-49C5-B9DA-EF029EAEDA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05674892-2B84-4081-B986-C87ADDF32264}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4185" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{E03FD33F-03C7-416C-8B19-E18165700E8F}"/>
+    <workbookView xWindow="5160" yWindow="4290" windowWidth="21600" windowHeight="11295" xr2:uid="{E03FD33F-03C7-416C-8B19-E18165700E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Country" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Supply areas" sheetId="4" r:id="rId5"/>
     <sheet name=" Strategic region" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Country!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="119">
   <si>
     <t>tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LIY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -510,6 +509,14 @@
   </si>
   <si>
     <t>continent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -888,8 +895,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B217314-8BAC-4322-B1FC-10DF1E6F7B8A}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -914,12 +922,15 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -934,15 +945,15 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -957,15 +968,15 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -980,15 +991,15 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1003,15 +1014,15 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -1026,15 +1037,15 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1049,15 +1060,15 @@
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1066,19 +1077,20 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{3B217314-8BAC-4322-B1FC-10DF1E6F7B8A}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1089,7 +1101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72EEFAC-5DDB-49E7-9055-0B920583B022}">
   <dimension ref="A1:H2002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1975" workbookViewId="0">
+    <sheetView topLeftCell="A1945" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A2002"/>
     </sheetView>
   </sheetViews>
@@ -1106,28 +1118,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
         <v>91</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>92</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" t="s">
-        <v>94</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" t="s">
         <v>98</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>99</v>
       </c>
-      <c r="G1" t="s">
-        <v>100</v>
-      </c>
       <c r="H1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1135,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -11190,101 +11202,101 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -11305,103 +11317,103 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -11436,93 +11448,93 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
